--- a/perf-cost/650.vid/azure/batch-size-30-reps-6/pricing-650.vid.xlsx
+++ b/perf-cost/650.vid/azure/batch-size-30-reps-6/pricing-650.vid.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Function Execution Count" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sum Function Execution Count an" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -25,13 +25,13 @@
     <t xml:space="preserve">Chart Title: </t>
   </si>
   <si>
-    <t xml:space="preserve">Function Execution Count</t>
+    <t xml:space="preserve">Sum Function Execution Count and Sum Function Execution Units for 650-vid-python-3-8-f9997e10</t>
   </si>
   <si>
-    <t xml:space="preserve">Thu Jan 25 2024 18:07:45 GMT+0100 (Central European Standard Time)</t>
+    <t xml:space="preserve">Wed Jun 05 2024 17:33:02 GMT+0200 (Central European Summer Time)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fri Jan 26 2024 09:42:31 GMT+0100 (Central European Standard Time)</t>
+    <t xml:space="preserve">Wed Jun 05 2024 19:44:59 GMT+0200 (Central European Summer Time)</t>
   </si>
   <si>
     <t xml:space="preserve">Grain: Automatic</t>
@@ -49,21 +49,22 @@
     <t xml:space="preserve">Chart type: Line</t>
   </si>
   <si>
-    <t xml:space="preserve">650-vid-python-3-8-00345a76, Function Execution Count (Sum)</t>
+    <t xml:space="preserve">650-vid-python-3-8-f9997e10, Function Execution Count (Sum), 650-vid-python-3-8-f9997e10</t>
   </si>
   <si>
-    <t xml:space="preserve">650-vid-python-3-8-00345a76, Function Execution Units (Sum)</t>
+    <t xml:space="preserve">650-vid-python-3-8-f9997e10, Function Execution Units (Sum), 650-vid-python-3-8-f9997e10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy\ h:mm"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -85,6 +86,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,12 +136,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -155,18 +166,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C201"/>
+  <dimension ref="A1:C147"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A168" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B200" activeCellId="0" sqref="B200"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A114" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C147" activeCellId="0" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="198" min="4" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="142" min="4" style="0" width="11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -222,7 +233,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>45316.7583333333</v>
+        <v>45448.7319444444</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>0</v>
@@ -233,7 +244,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>45316.7618055556</v>
+        <v>45448.7326388889</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0</v>
@@ -244,7 +255,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>45316.7652777778</v>
+        <v>45448.7333333333</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0</v>
@@ -255,7 +266,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>45316.76875</v>
+        <v>45448.7340277778</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>0</v>
@@ -266,18 +277,18 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>45316.7722222222</v>
+        <v>45448.7347222222</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>0</v>
+        <v>24568320</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>45316.7756944444</v>
+        <v>45448.7354166667</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>0</v>
@@ -288,7 +299,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>45316.7791666667</v>
+        <v>45448.7361111111</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0</v>
@@ -299,7 +310,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>45316.7826388889</v>
+        <v>45448.7368055556</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>0</v>
@@ -310,183 +321,183 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>45316.7861111111</v>
+        <v>45448.7375</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>0</v>
+        <v>118485120</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>45316.7895833333</v>
+        <v>45448.7381944444</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>0</v>
+        <v>35400192</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>45316.7930555556</v>
+        <v>45448.7388888889</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>0</v>
+        <v>82264704</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>45316.7965277778</v>
+        <v>45448.7395833333</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>0</v>
+        <v>48454144</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>45316.8</v>
+        <v>45448.7402777778</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>0</v>
+        <v>15866624</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>45316.8034722222</v>
+        <v>45448.7409722222</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>0</v>
+        <v>94059520</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>45316.8069444444</v>
+        <v>45448.7416666667</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>0</v>
+        <v>120070144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>45316.8104166667</v>
+        <v>45448.7423611111</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>0</v>
+        <v>264940672</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>45316.8138888889</v>
+        <v>45448.7430555556</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>0</v>
+        <v>201591552</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>45316.8173611111</v>
+        <v>45448.74375</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>0</v>
+        <v>79763840</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>45316.8208333333</v>
+        <v>45448.7444444444</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>0</v>
+        <v>138107520</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>45316.8243055556</v>
+        <v>45448.7451388889</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>0</v>
+        <v>68055552</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>45316.8277777778</v>
+        <v>45448.7458333333</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>0</v>
+        <v>51271808</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>45316.83125</v>
+        <v>45448.7465277778</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>0</v>
+        <v>47604224</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>45316.8347222222</v>
+        <v>45448.7472222222</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>0</v>
+        <v>28915328</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>45316.8381944444</v>
+        <v>45448.7479166667</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>0</v>
+        <v>25688576</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>45316.8416666667</v>
+        <v>45448.7486111111</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>0</v>
@@ -497,62 +508,62 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>45316.8451388889</v>
+        <v>45448.7493055556</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>0</v>
+        <v>5612288</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>45316.8486111111</v>
+        <v>45448.75</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>0</v>
+        <v>25167872</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>45316.8520833333</v>
+        <v>45448.7506944445</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>0</v>
+        <v>75630720</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>45316.8555555556</v>
+        <v>45448.7513888889</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>0</v>
+        <v>44541696</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>45316.8590277778</v>
+        <v>45448.7520833333</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>0</v>
+        <v>48216448</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>45316.8625</v>
+        <v>45448.7527777778</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>0</v>
@@ -563,139 +574,139 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>45316.8659722222</v>
+        <v>45448.7534722222</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>0</v>
+        <v>151154688</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>45316.8694444444</v>
+        <v>45448.7541666667</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>0</v>
+        <v>311945856</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>45316.8729166667</v>
+        <v>45448.7548611111</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>0</v>
+        <v>268152064</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>45316.8763888889</v>
+        <v>45448.7555555556</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>0</v>
+        <v>277972352</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>45316.8798611111</v>
+        <v>45448.75625</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>0</v>
+        <v>196836608</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>45316.8833333333</v>
+        <v>45448.7569444444</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>0</v>
+        <v>122462080</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>45316.8868055556</v>
+        <v>45448.7576388889</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>0</v>
+        <v>106617216</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>45316.8902777778</v>
+        <v>45448.7583333333</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>0</v>
+        <v>103146496</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>45316.89375</v>
+        <v>45448.7590277778</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>0</v>
+        <v>111001856</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>45316.8972222222</v>
+        <v>45448.7597222222</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>0</v>
+        <v>58982016</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>45316.9006944444</v>
+        <v>45448.7604166667</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>0</v>
+        <v>52514816</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>45316.9041666667</v>
+        <v>45448.7611111111</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>0</v>
+        <v>19944576</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>45316.9076388889</v>
+        <v>45448.7618055556</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>0</v>
@@ -706,7 +717,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>45316.9111111111</v>
+        <v>45448.7625</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>0</v>
@@ -717,7 +728,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>45316.9145833333</v>
+        <v>45448.7631944444</v>
       </c>
       <c r="B57" s="0" t="n">
         <v>0</v>
@@ -728,7 +739,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>45316.9180555556</v>
+        <v>45448.7638888889</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>0</v>
@@ -739,7 +750,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>45316.9215277778</v>
+        <v>45448.7645833333</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>0</v>
@@ -750,843 +761,843 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>45316.925</v>
+        <v>45448.7652777778</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>0</v>
+        <v>22874240</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>45316.9284722222</v>
+        <v>45448.7659722222</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>0</v>
+        <v>311800960</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>45316.9319444444</v>
+        <v>45448.7666666667</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>0</v>
+        <v>150441728</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>45316.9354166667</v>
+        <v>45448.7673611111</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>29888512</v>
+        <v>98325120</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>45316.9388888889</v>
+        <v>45448.7680555556</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>445788416</v>
+        <v>145578880</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>45316.9423611111</v>
+        <v>45448.76875</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>974855296</v>
+        <v>134531072</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>45316.9458333333</v>
+        <v>45448.7694444444</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>332031488</v>
+        <v>148887040</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>45316.9493055556</v>
+        <v>45448.7701388889</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>0</v>
+        <v>353860992</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>45316.9527777778</v>
+        <v>45448.7708333333</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>0</v>
+        <v>189889664</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>45316.95625</v>
+        <v>45448.7715277778</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>0</v>
+        <v>243939072</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>45316.9597222222</v>
+        <v>45448.7722222222</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>108544</v>
+        <v>179352320</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>45316.9631944444</v>
+        <v>45448.7729166667</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>312562816</v>
+        <v>242906368</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>45316.9666666667</v>
+        <v>45448.7736111111</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="C72" s="0" t="n">
-        <v>1138957056</v>
+        <v>146351232</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>45316.9701388889</v>
+        <v>45448.7743055556</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>660336768</v>
+        <v>34582656</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>45316.9736111111</v>
+        <v>45448.775</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>180436352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>45316.9770833333</v>
+        <v>45448.7756944444</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>425616512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>45316.9805555556</v>
+        <v>45448.7763888889</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>1136854272</v>
+        <v>1724288</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>45316.9840277778</v>
+        <v>45448.7770833333</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>381617536</v>
+        <v>70298880</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>45316.9875</v>
+        <v>45448.7777777778</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>73</v>
+        <v>3</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>97899392</v>
+        <v>138185344</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>45316.9909722222</v>
+        <v>45448.7784722222</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>553121152</v>
+        <v>45743232</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>45316.9944444444</v>
+        <v>45448.7791666667</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>1038941824</v>
+        <v>134304896</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="n">
-        <v>45316.9979166667</v>
+        <v>45448.7798611111</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>223493248</v>
+        <v>44373504</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="n">
-        <v>45317.0013888889</v>
+        <v>45448.7805555556</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>0</v>
+        <v>169266304</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="n">
-        <v>45317.0048611111</v>
+        <v>45448.78125</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>0</v>
+        <v>284492672</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="n">
-        <v>45317.0083333333</v>
+        <v>45448.7819444444</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>0</v>
+        <v>238752768</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
-        <v>45317.0118055556</v>
+        <v>45448.7826388889</v>
       </c>
       <c r="B85" s="0" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C85" s="0" t="n">
-        <v>0</v>
+        <v>185440256</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
-        <v>45317.0152777778</v>
+        <v>45448.7833333333</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>0</v>
+        <v>213522816</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="n">
-        <v>45317.01875</v>
+        <v>45448.7840277778</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>0</v>
+        <v>221071744</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="n">
-        <v>45317.0222222222</v>
+        <v>45448.7847222222</v>
       </c>
       <c r="B88" s="0" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="C88" s="0" t="n">
-        <v>18427136</v>
+        <v>113204992</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="n">
-        <v>45317.0256944444</v>
+        <v>45448.7854166667</v>
       </c>
       <c r="B89" s="0" t="n">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="C89" s="0" t="n">
-        <v>439566080</v>
+        <v>91787904</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="n">
-        <v>45317.0291666667</v>
+        <v>45448.7861111111</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>944556672</v>
+        <v>87086336</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="n">
-        <v>45317.0326388889</v>
+        <v>45448.7868055556</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>501327616</v>
+        <v>45848192</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
-        <v>45317.0361111111</v>
+        <v>45448.7875</v>
       </c>
       <c r="B92" s="0" t="n">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C92" s="0" t="n">
-        <v>176681088</v>
+        <v>135249280</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="n">
-        <v>45317.0395833333</v>
+        <v>45448.7881944444</v>
       </c>
       <c r="B93" s="0" t="n">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="C93" s="0" t="n">
-        <v>706741760</v>
+        <v>48434560</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="n">
-        <v>45317.0430555556</v>
+        <v>45448.7888888889</v>
       </c>
       <c r="B94" s="0" t="n">
-        <v>101</v>
+        <v>3</v>
       </c>
       <c r="C94" s="0" t="n">
-        <v>707871488</v>
+        <v>114835840</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
-        <v>45317.0465277778</v>
+        <v>45448.7895833333</v>
       </c>
       <c r="B95" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C95" s="0" t="n">
-        <v>344493184</v>
+        <v>61609344</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="n">
-        <v>45317.05</v>
+        <v>45448.7902777778</v>
       </c>
       <c r="B96" s="0" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C96" s="0" t="n">
-        <v>10056448</v>
+        <v>52738688</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="n">
-        <v>45317.0534722222</v>
+        <v>45448.7909722222</v>
       </c>
       <c r="B97" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C97" s="0" t="n">
-        <v>25850368</v>
+        <v>41603200</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="n">
-        <v>45317.0569444444</v>
+        <v>45448.7916666667</v>
       </c>
       <c r="B98" s="0" t="n">
-        <v>129</v>
+        <v>31</v>
       </c>
       <c r="C98" s="0" t="n">
-        <v>683309440</v>
+        <v>14205056</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="n">
-        <v>45317.0604166667</v>
+        <v>45448.7923611111</v>
       </c>
       <c r="B99" s="0" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="C99" s="0" t="n">
-        <v>917198080</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="n">
-        <v>45317.0638888889</v>
+        <v>45448.7930555556</v>
       </c>
       <c r="B100" s="0" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C100" s="0" t="n">
-        <v>401654272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="n">
-        <v>45317.0673611111</v>
+        <v>45448.79375</v>
       </c>
       <c r="B101" s="0" t="n">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C101" s="0" t="n">
-        <v>4558336</v>
+        <v>152447360</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="n">
-        <v>45317.0708333333</v>
+        <v>45448.7944444445</v>
       </c>
       <c r="B102" s="0" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C102" s="0" t="n">
-        <v>11453184</v>
+        <v>206715392</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="n">
-        <v>45317.0743055556</v>
+        <v>45448.7951388889</v>
       </c>
       <c r="B103" s="0" t="n">
-        <v>92</v>
+        <v>1</v>
       </c>
       <c r="C103" s="0" t="n">
-        <v>411019520</v>
+        <v>42346752</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="n">
-        <v>45317.0777777778</v>
+        <v>45448.7958333333</v>
       </c>
       <c r="B104" s="0" t="n">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="C104" s="0" t="n">
-        <v>596441088</v>
+        <v>24128768</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="n">
-        <v>45317.08125</v>
+        <v>45448.7965277778</v>
       </c>
       <c r="B105" s="0" t="n">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C105" s="0" t="n">
-        <v>622924928</v>
+        <v>4732288</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="n">
-        <v>45317.0847222222</v>
+        <v>45448.7972222222</v>
       </c>
       <c r="B106" s="0" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C106" s="0" t="n">
-        <v>364801664</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="n">
-        <v>45317.0881944444</v>
+        <v>45448.7979166667</v>
       </c>
       <c r="B107" s="0" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="C107" s="0" t="n">
-        <v>50315776</v>
+        <v>58897280</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="n">
-        <v>45317.0916666667</v>
+        <v>45448.7986111111</v>
       </c>
       <c r="B108" s="0" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C108" s="0" t="n">
-        <v>0</v>
+        <v>181701120</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="n">
-        <v>45317.0951388889</v>
+        <v>45448.7993055556</v>
       </c>
       <c r="B109" s="0" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="C109" s="0" t="n">
-        <v>24343168</v>
+        <v>379709568</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="n">
-        <v>45317.0986111111</v>
+        <v>45448.8</v>
       </c>
       <c r="B110" s="0" t="n">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="C110" s="0" t="n">
-        <v>455154560</v>
+        <v>172620416</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="n">
-        <v>45317.1020833333</v>
+        <v>45448.8006944444</v>
       </c>
       <c r="B111" s="0" t="n">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="C111" s="0" t="n">
-        <v>1057132928</v>
+        <v>276458624</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="n">
-        <v>45317.1055555556</v>
+        <v>45448.8013888889</v>
       </c>
       <c r="B112" s="0" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C112" s="0" t="n">
-        <v>787600896</v>
+        <v>93009536</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="n">
-        <v>45317.1090277778</v>
+        <v>45448.8020833333</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>56</v>
+        <v>10</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>61403520</v>
+        <v>118976384</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
-        <v>45317.1125</v>
+        <v>45448.8027777778</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>0</v>
+        <v>53946752</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="n">
-        <v>45317.1159722222</v>
+        <v>45448.8034722222</v>
       </c>
       <c r="B115" s="0" t="n">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="C115" s="0" t="n">
-        <v>163187968</v>
+        <v>103609216</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="n">
-        <v>45317.1194444444</v>
+        <v>45448.8041666667</v>
       </c>
       <c r="B116" s="0" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C116" s="0" t="n">
-        <v>205309952</v>
+        <v>8088448</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="n">
-        <v>45317.1229166667</v>
+        <v>45448.8048611111</v>
       </c>
       <c r="B117" s="0" t="n">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="C117" s="0" t="n">
-        <v>1434557824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="n">
-        <v>45317.1263888889</v>
+        <v>45448.8055555556</v>
       </c>
       <c r="B118" s="0" t="n">
-        <v>125</v>
+        <v>27</v>
       </c>
       <c r="C118" s="0" t="n">
-        <v>421398272</v>
+        <v>1415040</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="n">
-        <v>45317.1298611111</v>
+        <v>45448.80625</v>
       </c>
       <c r="B119" s="0" t="n">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="C119" s="0" t="n">
-        <v>1249792</v>
+        <v>44549632</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="n">
-        <v>45317.1333333333</v>
+        <v>45448.8069444444</v>
       </c>
       <c r="B120" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C120" s="0" t="n">
-        <v>10982400</v>
+        <v>59520</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="n">
-        <v>45317.1368055556</v>
+        <v>45448.8076388889</v>
       </c>
       <c r="B121" s="0" t="n">
-        <v>85</v>
+        <v>1</v>
       </c>
       <c r="C121" s="0" t="n">
-        <v>289739392</v>
+        <v>66048</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="n">
-        <v>45317.1402777778</v>
+        <v>45448.8083333333</v>
       </c>
       <c r="B122" s="0" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C122" s="0" t="n">
-        <v>582733184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="n">
-        <v>45317.14375</v>
+        <v>45448.8090277778</v>
       </c>
       <c r="B123" s="0" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="C123" s="0" t="n">
-        <v>953501056</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="n">
-        <v>45317.1472222222</v>
+        <v>45448.8097222222</v>
       </c>
       <c r="B124" s="0" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C124" s="0" t="n">
-        <v>391597312</v>
+        <v>100087424</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="n">
-        <v>45317.1506944444</v>
+        <v>45448.8104166667</v>
       </c>
       <c r="B125" s="0" t="n">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C125" s="0" t="n">
-        <v>95776384</v>
+        <v>328907392</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="1" t="n">
-        <v>45317.1541666667</v>
+        <v>45448.8111111111</v>
       </c>
       <c r="B126" s="0" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C126" s="0" t="n">
-        <v>0</v>
+        <v>289176704</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="1" t="n">
-        <v>45317.1576388889</v>
+        <v>45448.8118055556</v>
       </c>
       <c r="B127" s="0" t="n">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="C127" s="0" t="n">
-        <v>304609664</v>
+        <v>326215424</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="1" t="n">
-        <v>45317.1611111111</v>
+        <v>45448.8125</v>
       </c>
       <c r="B128" s="0" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C128" s="0" t="n">
-        <v>450489472</v>
+        <v>215223168</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="1" t="n">
-        <v>45317.1645833333</v>
+        <v>45448.8131944444</v>
       </c>
       <c r="B129" s="0" t="n">
-        <v>112</v>
+        <v>9</v>
       </c>
       <c r="C129" s="0" t="n">
-        <v>914983168</v>
+        <v>165804288</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="1" t="n">
-        <v>45317.1680555556</v>
+        <v>45448.8138888889</v>
       </c>
       <c r="B130" s="0" t="n">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C130" s="0" t="n">
-        <v>323350016</v>
+        <v>186168576</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="n">
-        <v>45317.1715277778</v>
+        <v>45448.8145833333</v>
       </c>
       <c r="B131" s="0" t="n">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="C131" s="0" t="n">
-        <v>259134720</v>
+        <v>43628672</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="n">
-        <v>45317.175</v>
+        <v>45448.8152777778</v>
       </c>
       <c r="B132" s="0" t="n">
-        <v>86</v>
+        <v>2</v>
       </c>
       <c r="C132" s="0" t="n">
-        <v>877588224</v>
+        <v>72332928</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="n">
-        <v>45317.1784722222</v>
+        <v>45448.8159722222</v>
       </c>
       <c r="B133" s="0" t="n">
-        <v>87</v>
+        <v>8</v>
       </c>
       <c r="C133" s="0" t="n">
-        <v>852850432</v>
+        <v>32128512</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="n">
-        <v>45317.1819444444</v>
+        <v>45448.8166666667</v>
       </c>
       <c r="B134" s="0" t="n">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="C134" s="0" t="n">
-        <v>18922752</v>
+        <v>63287808</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="n">
-        <v>45317.1854166667</v>
+        <v>45448.8173611111</v>
       </c>
       <c r="B135" s="0" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C135" s="0" t="n">
-        <v>0</v>
+        <v>56646400</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="n">
-        <v>45317.1888888889</v>
+        <v>45448.8180555556</v>
       </c>
       <c r="B136" s="0" t="n">
         <v>0</v>
@@ -1597,18 +1608,18 @@
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="n">
-        <v>45317.1923611111</v>
+        <v>45448.81875</v>
       </c>
       <c r="B137" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" s="0" t="n">
-        <v>0</v>
+        <v>76032</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="n">
-        <v>45317.1958333333</v>
+        <v>45448.8194444444</v>
       </c>
       <c r="B138" s="0" t="n">
         <v>0</v>
@@ -1619,7 +1630,7 @@
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="n">
-        <v>45317.1993055556</v>
+        <v>45448.8201388889</v>
       </c>
       <c r="B139" s="0" t="n">
         <v>0</v>
@@ -1630,7 +1641,7 @@
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="n">
-        <v>45317.2027777778</v>
+        <v>45448.8208333333</v>
       </c>
       <c r="B140" s="0" t="n">
         <v>0</v>
@@ -1641,7 +1652,7 @@
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="n">
-        <v>45317.20625</v>
+        <v>45448.8215277778</v>
       </c>
       <c r="B141" s="0" t="n">
         <v>0</v>
@@ -1652,7 +1663,7 @@
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="1" t="n">
-        <v>45317.2097222222</v>
+        <v>45448.8222222222</v>
       </c>
       <c r="B142" s="0" t="n">
         <v>0</v>
@@ -1662,641 +1673,35 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="1" t="n">
-        <v>45317.2131944444</v>
-      </c>
       <c r="B143" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(B12:B142)</f>
+        <v>1601</v>
       </c>
       <c r="C143" s="0" t="n">
-        <v>0</v>
+        <f aca="false">SUM(C12:C142)</f>
+        <v>12185270400</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="1" t="n">
-        <v>45317.2166666667</v>
-      </c>
-      <c r="B144" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C144" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="1" t="n">
-        <v>45317.2201388889</v>
-      </c>
-      <c r="B145" s="0" t="n">
-        <v>0</v>
+        <f aca="false">C143/1024000</f>
+        <v>11899.678125</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="2" t="n">
+        <f aca="false">(0.2/1000000)*B143</f>
+        <v>0.0003202</v>
       </c>
       <c r="C145" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="1" t="n">
-        <v>45317.2236111111</v>
-      </c>
-      <c r="B146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C146" s="0" t="n">
-        <v>0</v>
+        <f aca="false">C144*0.000016</f>
+        <v>0.19039485</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="1" t="n">
-        <v>45317.2270833333</v>
-      </c>
-      <c r="B147" s="0" t="n">
-        <v>0</v>
-      </c>
       <c r="C147" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="1" t="n">
-        <v>45317.2305555556</v>
-      </c>
-      <c r="B148" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="1" t="n">
-        <v>45317.2340277778</v>
-      </c>
-      <c r="B149" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C149" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="1" t="n">
-        <v>45317.2375</v>
-      </c>
-      <c r="B150" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="1" t="n">
-        <v>45317.2409722222</v>
-      </c>
-      <c r="B151" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C151" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="1" t="n">
-        <v>45317.2444444444</v>
-      </c>
-      <c r="B152" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C152" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="1" t="n">
-        <v>45317.2479166667</v>
-      </c>
-      <c r="B153" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C153" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="1" t="n">
-        <v>45317.2513888889</v>
-      </c>
-      <c r="B154" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C154" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="1" t="n">
-        <v>45317.2548611111</v>
-      </c>
-      <c r="B155" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="1" t="n">
-        <v>45317.2583333333</v>
-      </c>
-      <c r="B156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C156" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="1" t="n">
-        <v>45317.2618055556</v>
-      </c>
-      <c r="B157" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="1" t="n">
-        <v>45317.2652777778</v>
-      </c>
-      <c r="B158" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="1" t="n">
-        <v>45317.26875</v>
-      </c>
-      <c r="B159" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="1" t="n">
-        <v>45317.2722222222</v>
-      </c>
-      <c r="B160" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="1" t="n">
-        <v>45317.2756944444</v>
-      </c>
-      <c r="B161" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C161" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="1" t="n">
-        <v>45317.2791666667</v>
-      </c>
-      <c r="B162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C162" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="1" t="n">
-        <v>45317.2826388889</v>
-      </c>
-      <c r="B163" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C163" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="1" t="n">
-        <v>45317.2861111111</v>
-      </c>
-      <c r="B164" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C164" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="1" t="n">
-        <v>45317.2895833333</v>
-      </c>
-      <c r="B165" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C165" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="1" t="n">
-        <v>45317.2930555556</v>
-      </c>
-      <c r="B166" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C166" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="1" t="n">
-        <v>45317.2965277778</v>
-      </c>
-      <c r="B167" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C167" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="1" t="n">
-        <v>45317.3</v>
-      </c>
-      <c r="B168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C168" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="1" t="n">
-        <v>45317.3034722222</v>
-      </c>
-      <c r="B169" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C169" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="1" t="n">
-        <v>45317.3069444444</v>
-      </c>
-      <c r="B170" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C170" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="1" t="n">
-        <v>45317.3104166667</v>
-      </c>
-      <c r="B171" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C171" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="1" t="n">
-        <v>45317.3138888889</v>
-      </c>
-      <c r="B172" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C172" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="1" t="n">
-        <v>45317.3173611111</v>
-      </c>
-      <c r="B173" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C173" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="1" t="n">
-        <v>45317.3208333333</v>
-      </c>
-      <c r="B174" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C174" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="1" t="n">
-        <v>45317.3243055556</v>
-      </c>
-      <c r="B175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C175" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="1" t="n">
-        <v>45317.3277777778</v>
-      </c>
-      <c r="B176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C176" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="1" t="n">
-        <v>45317.33125</v>
-      </c>
-      <c r="B177" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C177" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="1" t="n">
-        <v>45317.3347222222</v>
-      </c>
-      <c r="B178" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C178" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="1" t="n">
-        <v>45317.3381944444</v>
-      </c>
-      <c r="B179" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C179" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="1" t="n">
-        <v>45317.3416666667</v>
-      </c>
-      <c r="B180" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C180" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="1" t="n">
-        <v>45317.3451388889</v>
-      </c>
-      <c r="B181" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C181" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="1" t="n">
-        <v>45317.3486111111</v>
-      </c>
-      <c r="B182" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C182" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="1" t="n">
-        <v>45317.3520833333</v>
-      </c>
-      <c r="B183" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C183" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="1" t="n">
-        <v>45317.3555555556</v>
-      </c>
-      <c r="B184" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C184" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="1" t="n">
-        <v>45317.3590277778</v>
-      </c>
-      <c r="B185" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C185" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="1" t="n">
-        <v>45317.3625</v>
-      </c>
-      <c r="B186" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C186" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="1" t="n">
-        <v>45317.3659722222</v>
-      </c>
-      <c r="B187" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C187" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="1" t="n">
-        <v>45317.3694444444</v>
-      </c>
-      <c r="B188" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C188" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="1" t="n">
-        <v>45317.3729166667</v>
-      </c>
-      <c r="B189" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C189" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="1" t="n">
-        <v>45317.3763888889</v>
-      </c>
-      <c r="B190" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C190" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="1" t="n">
-        <v>45317.3798611111</v>
-      </c>
-      <c r="B191" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C191" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="1" t="n">
-        <v>45317.3833333333</v>
-      </c>
-      <c r="B192" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C192" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="1" t="n">
-        <v>45317.3868055556</v>
-      </c>
-      <c r="B193" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C193" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="1" t="n">
-        <v>45317.3902777778</v>
-      </c>
-      <c r="B194" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C194" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="1" t="n">
-        <v>45317.39375</v>
-      </c>
-      <c r="B195" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C195" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="1" t="n">
-        <v>45317.3972222222</v>
-      </c>
-      <c r="B196" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C196" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="1" t="n">
-        <v>45317.4006944444</v>
-      </c>
-      <c r="B197" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C197" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="1" t="n">
-        <v>45317.4041666667</v>
-      </c>
-      <c r="B198" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C198" s="0" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="0" t="n">
-        <f aca="false">SUM(B12:B198)</f>
-        <v>3544</v>
-      </c>
-      <c r="C199" s="0" t="n">
-        <f aca="false">SUM(C12:C198)</f>
-        <v>26809354368</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C200" s="0" t="n">
-        <f aca="false">C199/1024000</f>
-        <v>26181.010125</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C201" s="0" t="n">
-        <f aca="false">C200*0.000016</f>
-        <v>0.418896162</v>
+        <f aca="false">SUM(B145:C145)</f>
+        <v>0.19071505</v>
       </c>
     </row>
   </sheetData>
